--- a/output/ml1-pt.xlsx
+++ b/output/ml1-pt.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>AI Basics &amp; Data Skills: In this unit, students will demystify modern AI (symbolic vs statistical, narrow vs general, ML/DL/LLMs and real-world applications), examine AI’s limits and responsibilities, and build practical Python skills to load, inspect, filter, group, and enrich tabular data using Pandas for simple real-world analyses.</t>
+          <t>Foundations of Modern AI: In this unit, you will build a clear, practical mental model of what AI is, how it evolved from rule-based to data-driven systems, how symbolic and statistical approaches differ, where ML, DL, and LLMs fit in, and how real-world AI applications depend on data, so you can correctly identify and explain AI systems in everyday tools and industry scenarios.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -510,12 +510,12 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Understand what makes a system “intelligent” in practice, how AI evolved from rule-based logic to data-driven methods, and how to tell AI apart from traditional software in real products. Learn to classify systems as rule-based or data-driven, practice writing simple rules, and see when and why data-driven approaches scale better than hand-crafted rules.</t>
+          <t>Understand what makes a system genuinely “intelligent,” how AI has evolved from rule-based logic to data-driven methods, and how to recognize AI (vs. traditional software) in real tools and historical milestones.</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>How AI Systems Really Work</t>
+          <t>What AI Really Is</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -586,12 +586,12 @@
     <row r="5">
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Rule-Based AI</t>
+          <t>Theory Practice Lesson: Spotting AI in Everyday Tools</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -601,63 +601,78 @@
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>Define rule-based (symbolic) AI; Explain how rules are written and applied; Identify strengths and limitations of rule-based systems</t>
+          <t>You will be able to correctly identify whether a system is AI or traditional software and justify your reasoning in practical terms. Output: A completed worksheet/table where each example is labeled as AI or non-AI with a short explanation.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>Data-Driven AI</t>
+          <t>Theory Practice Lesson: Tracing the Evolution of AI</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>Define data-driven (statistical) AI; Explain how data replaces explicit rules; Describe why data-driven systems scale better</t>
+          <t>You will be able to place key AI developments on a timeline and explain how the shift from rules to data changed AI systems. Output: A labeled timeline and a short comparison paragraph contrasting rule-focused and data-focused eras.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Spot the AI in Everyday Apps</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>Identify which parts of everyday tools are actually using AI versus traditional software. Output: A completed worksheet where features of common apps are labeled as “AI” or “non-AI” with brief justifications.</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Learn how rule-based (symbolic) and data-driven (statistical) AI systems work, where each approach shines, and how they differ. Practice both styles by building a small rule engine and a simple pattern-based recommender, and reflect on their strengths and limitations through discussion and Q&amp;A.</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Rule-Based vs Data-Driven AI</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Timeline of AI Milestones</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -667,19 +682,19 @@
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>Arrange key AI history events in the correct order and connect each to a simple explanation of what changed. Output: A filled-in timeline that places rule-based AI, expert systems, and data-driven breakthroughs in the right chronological order.</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Rule-Based or Data-Driven?</t>
+          <t>Rule-Based AI</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -689,19 +704,19 @@
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>Distinguish rule-based AI from data-driven AI by classifying short system descriptions and explaining your reasoning. Output: A categorized list of example systems marked as “rule-based” or “data-driven” with one-sentence explanations.</t>
+          <t>Define rule-based (symbolic) AI; Explain how rules are written and applied; Identify strengths and limitations of rule-based systems</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Designing Rules for a Smart Thermostat</t>
+          <t>Data-Driven AI</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -711,7 +726,7 @@
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>Practice writing clear IF–THEN rules and recognize the strengths and limits of rule-based control. Output: A small rule set for a “smart” thermostat written in plain language, plus notes on cases where the rules might fail.</t>
+          <t>Define data-driven (statistical) AI; Explain how data replaces explicit rules; Describe why data-driven systems scale better</t>
         </is>
       </c>
     </row>
@@ -723,7 +738,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: When Data Beats Rules</t>
+          <t>Practice Lesson: Coffee Shop Rule Engine</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -733,88 +748,88 @@
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>Explain, using concrete scenarios, why data-driven approaches scale better than manually written rules. Output: A short comparison chart that maps several tasks (e.g., spam detection, handwriting recognition) to whether rules or data would be more practical and why.</t>
+          <t>You will design and test a small rule-based system that applies discount and recommendation rules in a fictional coffee shop. Output: A simple rule table or pseudocode that, given an order description, outputs which discount or suggestion applies.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
+          <t>Practice Lesson: Movie Recommender by Data Patterns</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>You will simulate a data-driven system by using example viewing data to infer simple “if-likely-then-recommend” patterns without writing explicit rules first. Output: A filled decision sheet that, given a user’s past watched movies, outputs a recommended next movie based on observed patterns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Group Class</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
           <t>Closing session</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Build a clear mental map of today’s AI landscape—symbolic vs statistical methods, narrow vs general AI, ML vs DL vs LLMs—and apply this understanding to real products, data types, and common AI myths.</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Modern AI, Clearly Explained</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>Group Class</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
+    <row r="14">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Learn how symbolic and statistical AI differ, how each handles complexity, and why statistical methods power most modern systems. Distinguish narrow AI from hypothetical general AI using real-world examples and clear up common myths about what AI can and cannot do today.</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Symbolic, Statistical, and Narrow AI</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Group Class</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>Opening session and Q&amp;A</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Lesson</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>Symbolic vs Statistical AI</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>Clearly distinguish symbolic AI from statistical AI; Compare how each approach handles complexity; Identify which approach powers most modern AI systems</t>
         </is>
       </c>
     </row>
@@ -826,7 +841,7 @@
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Narrow AI vs General AI</t>
+          <t>Symbolic vs Statistical AI</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -836,7 +851,7 @@
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>Define Narrow AI using real-world examples; Define General AI conceptually and explain why it does not exist today; Correct common misconceptions about AI capabilities</t>
+          <t>Clearly distinguish symbolic AI from statistical AI; Compare how each approach handles complexity; Identify which approach powers most modern AI systems</t>
         </is>
       </c>
     </row>
@@ -848,7 +863,7 @@
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>ML, DL, and LLMs</t>
+          <t>Narrow AI vs General AI</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -858,19 +873,19 @@
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>Distinguish Machine Learning, Deep Learning, and LLMs; Explain how these approaches relate to statistical AI; Use correct terminology when describing modern systems</t>
+          <t>Define Narrow AI using real-world examples; Define General AI conceptually and explain why it does not exist today; Correct common misconceptions about AI capabilities</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>AI in the Real World</t>
+          <t>Theory Practice Lesson: Symbolic vs Statistical Sorting Game</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -880,7 +895,7 @@
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>Identify real-world applications of AI across industries; Describe what type of data these systems rely on; Explain why AI behavior depends on data quality</t>
+          <t>You will be able to classify AI examples as symbolic or statistical and explain how each handles complexity in a short justification. Output: A completed sorting chart with each example placed under “Symbolic AI” or “Statistical AI” plus brief reasoning notes.</t>
         </is>
       </c>
     </row>
@@ -892,51 +907,66 @@
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Symbolic vs Statistical Sorting Game</t>
+          <t>Theory Practice Lesson: Narrow vs General AI Reality Check</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>Clearly distinguish symbolic AI from statistical AI by matching descriptions, diagrams, and examples to each category. Output: A completed matching table that assigns each mini-scenario to “symbolic,” “statistical,” or “mixed” with a one-line justification.</t>
+          <t>You will distinguish narrow AI from hypothetical general AI using real-world scenarios and correct common misconceptions. Output: A completed set of scenario labels (Narrow/General/Not AI) and a short myth-vs-reality Q&amp;A sheet.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Narrow vs General AI Scenarios</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>Correctly classify example systems as Narrow AI and articulate how they differ from hypothetical General AI. Output: A scenario list annotated as “Narrow AI” or “Not AI / General AI idea” with short clarifications.</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="20">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Build a clear mental model of how machine learning, deep learning, and LLMs relate to each other and to statistical AI, then apply that understanding to real-world systems across industries—analyzing the data they use and how data quality shapes their behavior.</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Modern AI in Practice</t>
+        </is>
+      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: ML, DL, and LLMs Concept Map</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -946,19 +976,19 @@
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>Differentiate Machine Learning, Deep Learning, and LLMs and show how they relate in a simple visual map. Output: A hand-drawn or digital concept map linking ML, DL, and LLMs with arrows and brief definitions at each node.</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Name the AI Behind the Product</t>
+          <t>ML, DL, and LLMs</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -968,19 +998,19 @@
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>Identify the type of AI approach and data used in real-world applications across different industries. Output: A table of 8–10 products (e.g., Netflix, spam filter, self-driving car) with columns for “AI type,” “data used,” and “why data quality matters.”</t>
+          <t>Distinguish Machine Learning, Deep Learning, and LLMs; Explain how these approaches relate to statistical AI; Use correct terminology when describing modern systems</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Busting AI Myths</t>
+          <t>AI in the Real World</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -990,19 +1020,19 @@
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>Recognize and correct common misconceptions about AI capabilities using precise terminology. Output: A two-column sheet where common AI myths are paired with accurate, concise corrections.</t>
+          <t>Identify real-world applications of AI across industries; Describe what type of data these systems rely on; Explain why AI behavior depends on data quality</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Closing session</t>
+          <t>Practice Lesson: ML, DL, and LLMs Flashcard Lab</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1012,70 +1042,70 @@
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>Wrap up the day togeher with your peers and ask final questions</t>
+          <t>You will create and use concept flashcards to accurately match descriptions and examples to Machine Learning, Deep Learning, and LLMs. Output: A small deck of labeled flashcards and a completed matching exercise linking each real-world system to ML, DL, or LLMs.</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Build an intuition for AI’s limits and societal impact, and get hands-on practice using Python, NumPy, and Pandas to load, inspect, and reason about real tabular data.</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>Responsible AI and First Data Tools</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Opening session and Q&amp;A</t>
+          <t>Practice Lesson: AI in Industries Case File</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
+          <t>You will analyze short case descriptions to identify the AI type involved, the data it relies on, and how data quality shapes its behavior. Output: A set of completed “case files” where each case includes the AI category, data sources, and at least one risk or effect of poor data quality.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>AI Limits and Responsibility</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>Identify common limitations of AI systems; Explain why AI systems can fail or behave unexpectedly; Describe, at a high level, why AI impacts society</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="26">
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Review key concepts learned during the week and complete the weekly assessment.</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Weekly Review</t>
+        </is>
+      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
           <t>Lesson</t>
@@ -1083,51 +1113,74 @@
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Python’s Data Toolbox</t>
+          <t>Weekly Review Prep Session</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>Explain Python’s role in data analysis workflows; Distinguish Python libraries from core Python language features; Identify when to use Pandas versus NumPy</t>
+          <t>We'll review key concepts and prepare for the assessment</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>DataFrames and Series</t>
+          <t>Weekly Review Assessment</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>Define DataFrame and Series using tabular data examples; Explain how rows and columns map to DataFrame structure; Navigate and inspect basic DataFrame components</t>
+          <t>Our weekly assessment, where you will test your knowledge from the last week using practical questions and challenges</t>
         </is>
       </c>
     </row>
     <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Tables in Practice: In this unit, students will load real datasets into Pandas, navigate DataFrames and Series, select and filter rows and columns, group and aggregate data, create and verify derived columns, and reason about data quality and table transformations well enough to write small analysis scripts and explain their logic in plain language.</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Learn how to load real-world data into Pandas DataFrames, understand the relationship between rows, columns, Series, and DataFrames, and confidently inspect and navigate tabular data using code and small practice projects.</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Working with Pandas Tables</t>
+        </is>
+      </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Loading Real Data</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1137,19 +1190,19 @@
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>Load CSV data into a Pandas DataFrame; Verify that data loaded correctly using inspection methods; Identify basic issues immediately after loading data</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: AI Limits at a Music App</t>
+          <t>DataFrames and Series</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1159,19 +1212,19 @@
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>Analyze limitations and potential failures of an AI music recommendation system and outline responsible design choices. Output: A short written analysis listing at least three concrete limitations, two failure examples, and two responsibility-focused mitigations.</t>
+          <t>Define DataFrame and Series using tabular data examples; Explain how rows and columns map to DataFrame structure; Navigate and inspect basic DataFrame components</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Python Data Toolbox Overview</t>
+          <t>Loading Real Data</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1181,7 +1234,7 @@
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>Identify where Python, NumPy, and Pandas fit in a data workflow and choose the right tool for given mini-tasks. Output: A small “tool selection” checklist mapping common data tasks (e.g., matrix math, table cleaning) to Python core, NumPy, or Pandas.</t>
+          <t>Load CSV data into a Pandas DataFrame; Verify that data loaded correctly using inspection methods; Identify basic issues immediately after loading data</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1246,7 @@
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cafe Sales DataFrame and Series</t>
+          <t>Practice Lesson: Cafe orders DataFrame</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1203,7 +1256,7 @@
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>Practice creating simple Pandas Series and DataFrames to represent a cafe’s daily orders and inspect their structure. Output: A Python script that builds a small DataFrame of cafe orders and prints its shape, columns, and a few Series slices.</t>
+          <t>Load a small CSV of cafe orders into a DataFrame, inspect its rows and columns, and confidently navigate Series and DataFrame components. Output: A script that loads a cafe_orders.csv file, prints basic info, head, column names, and selected Series to the console.</t>
         </is>
       </c>
     </row>
@@ -1215,43 +1268,58 @@
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Loading Movie Ratings Data</t>
+          <t>Practice Lesson: Music playlist Series explorer</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>Load a CSV file into a Pandas DataFrame and verify its structure using basic inspection methods. Output: A Python script that reads a `movie_ratings.csv` file, prints `head()`, `info()`, and `describe()` to the console.</t>
+          <t>Create DataFrames and Series from a small in-memory music playlist, then explore and compare how row and column access works. Output: A script that builds a playlist DataFrame from Python lists/dicts and prints specific Series, rows, and slices with labeled explanations.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: First Look at Real Survey Data</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>Load a real or sample survey CSV, inspect it for obvious issues, and note questions about its contents. Output: A Python script that loads `survey_responses.csv`, displays sample rows and summary info, and prints a short text report of initial observations.</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="34">
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Learn to carefully inspect tabular datasets, spot basic data issues, and describe what the data represents in plain language. Practice selecting columns and filtering rows with simple conditions to answer real-world questions using CSV files.</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>Reading and Filtering Data</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
           <t>Group Class</t>
@@ -1259,7 +1327,7 @@
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Closing session</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1269,44 +1337,29 @@
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>Wrap up the day togeher with your peers and ask final questions</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>Learn to inspect, select, filter, group, and enrich tabular datasets using pandas to answer clear questions and surface basic insights. Practice building small, reliable analysis scripts that clean raw data and produce simple, meaningful reports.</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>Working Confidently with Tabular Data</t>
-        </is>
-      </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Opening session and Q&amp;A</t>
+          <t>Reading Data Carefully</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
+          <t>Inspect datasets to understand structure and content; Identify potential data issues by scanning rows and columns; Formulate simple questions about what the data represents</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1371,7 @@
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Reading Data Carefully</t>
+          <t>Selecting and Filtering</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1328,19 +1381,19 @@
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>Inspect datasets to understand structure and content; Identify potential data issues by scanning rows and columns; Formulate simple questions about what the data represents</t>
+          <t>Select specific columns from a DataFrame intentionally; Filter rows using logical conditions; Explain filtering logic clearly in plain language</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Selecting and Filtering</t>
+          <t>Practice Lesson: Movie ratings filter</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1350,63 +1403,78 @@
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>Select specific columns from a DataFrame intentionally; Filter rows using logical conditions; Explain filtering logic clearly in plain language</t>
+          <t>Carefully inspect a movie ratings dataset, then select and filter columns/rows to answer plain-language questions about the data. Output: A script that reads a movie_ratings.csv file and prints filtered views such as “highly rated recent movies” and “low-rated long movies”.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Grouping Data</t>
+          <t>Practice Lesson: Fitness tracker day log</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>Group data by categorical features using Pandas; Apply basic aggregations such as mean and count; Interpret grouped results in terms of real-world meaning</t>
+          <t>Practice reading a fitness tracking CSV, identifying potential data issues, and applying logical filters to focus on specific days or activity levels. Output: A script that loads daily_steps.csv and prints subsets like “days over 10,000 steps” or “weekend days only” along with column selections.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Derived Columns</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>Create new columns derived from existing data; Explain why derived columns can make data more useful; Verify correctness of newly created columns</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="40">
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Learn how to group data by categorical features, compute and interpret basic aggregations, and create useful derived columns in Pandas. By the end of the chapter, you’ll build and verify supermarket sales summaries that rely on both grouped data and newly calculated fields.</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>Grouped Summaries and New Columns</t>
+        </is>
+      </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Reading Bike Rental Data Carefully</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1416,19 +1484,19 @@
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>Inspect a bike rental dataset to understand its columns, units, and potential data issues. Output: A Python script that loads `bike_rentals.csv`, prints structural info and sample rows, and writes a short summary of what each key column represents.</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Selecting and Filtering Movie Data</t>
+          <t>Grouping Data</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1438,19 +1506,19 @@
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>Select relevant columns and filter rows from a movies DataFrame using clear logical conditions. Output: A Python script that loads `movies.csv`, selects a subset of columns, and prints only movies that meet chosen rating and year criteria.</t>
+          <t>Group data by categorical features using Pandas; Apply basic aggregations such as mean and count; Interpret grouped results in terms of real-world meaning</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Grouping Cafe Orders</t>
+          <t>Derived Columns</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1460,7 +1528,7 @@
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>Group cafe order data by product and compute basic aggregations like total quantity and average price. Output: A Python script that groups a cafe orders DataFrame by item name and prints a summary table with count and mean price per item.</t>
+          <t>Create new columns derived from existing data; Explain why derived columns can make data more useful; Verify correctness of newly created columns</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1540,7 @@
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Derived Columns for Sales Insights</t>
+          <t>Practice Lesson: Supermarket sales summary - Part 1</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1482,7 +1550,7 @@
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>Create meaningful derived columns from raw sales data and verify that their values are correct. Output: A Python script that adds columns such as `total_price` and `discounted_price` to a sales DataFrame and prints before/after samples to validate them.</t>
+          <t>Group supermarket sales data by categorical columns and compute basic aggregations, then interpret the grouped results in real-world terms. Output: A script that loads supermarket_sales.csv and prints grouped tables such as total and average sales per store or per product category.</t>
         </is>
       </c>
     </row>
@@ -1494,43 +1562,58 @@
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Daily Revenue Report – Part 1</t>
+          <t>Practice Lesson: Supermarket sales summary - Part 2</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
-          <t>Combine careful reading, selecting, and filtering to prepare a clean subset of transaction data for analysis. Output: A Python script that loads `store_transactions.csv`, inspects it, selects needed columns, filters out invalid rows, and prints a cleaned preview.</t>
+          <t>Add derived columns to the supermarket sales data (e.g., total_price, discount_rate) and verify their correctness before reusing them in grouped summaries. Output: A script that extends supermarket_sales.csv with new calculated columns and prints checks and summaries that rely on those columns.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Daily Revenue Report – Part 2</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I45" s="3" t="inlineStr">
         <is>
-          <t>Use grouping and derived columns to calculate daily revenue and basic KPIs from the cleaned transaction data. Output: A Python script that groups cleaned transactions by date, computes total revenue and average order value per day, and prints a concise daily report.</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="46">
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Build confidence reasoning about tabular data—how operations change rows and columns—and learn to spot and explain essential data quality checks to perform before any analysis.</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Thinking in Tables and Data Quality</t>
+        </is>
+      </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
           <t>Group Class</t>
@@ -1538,7 +1621,7 @@
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Closing session</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -1548,26 +1631,11 @@
       </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
-          <t>Wrap up the day togeher with your peers and ask final questions</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>Review key concepts learned during the week and complete the weekly assessment.</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>Weekly Review</t>
-        </is>
-      </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
           <t>Lesson</t>
@@ -1575,17 +1643,17 @@
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Weekly Review Prep Session</t>
+          <t>Thinking in Tables</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
-          <t>We'll review key concepts and prepare for the assessment</t>
+          <t>Reason about data transformations in terms of rows and columns; Predict how operations will change a dataset’s structure; Develop confidence manipulating tabular data logically</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1665,7 @@
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Prep Lesson</t>
+          <t>Data Quality Checks</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -1607,100 +1675,92 @@
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
-          <t>Prep lesson for the weekly review</t>
+          <t>Understand different data quality checks and why they are important; Perform basic checks to assess data quality; Explain why quality checks should happen before analysis</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Weekly Review Assessment</t>
+          <t>Theory Practice Lesson: Thinking in tables quiz</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I49" s="3" t="inlineStr">
         <is>
-          <t>Our weekly assessment, where you will test your knowledge from the last week using practical questions and challenges</t>
+          <t>Strengthen your ability to mentally model how tabular operations change rows and columns by working through written scenarios and predicting resulting table structures. Output: A completed quiz-style worksheet (text answers) where you match operations to before/after tables and explain the transformations.</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>Foundations of EDA: In this unit, students will clean and prepare tabular data (fixing types, inspecting outliers, filtering, and grouping), then use exploratory data analysis tools—plots, distributions, variability, and correlation thinking—to ask and answer focused questions about patterns and relationships without over-claiming conclusions.</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>Learn to fix data types, investigate outliers, apply purposeful filters, and use grouping so your datasets become clean, trustworthy, and ready for meaningful analysis from end to end.</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>Cleaning Data for Real Insights</t>
-        </is>
-      </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Opening session and Q&amp;A</t>
+          <t>Theory Practice Lesson: Data quality checks detective</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I50" s="3" t="inlineStr">
         <is>
-          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
+          <t>Practice identifying and prioritizing data quality checks through scenario-based questions, deciding what to check and why before any analysis. Output: A written set of answers where you list appropriate quality checks for given datasets, explain their importance, and spot potential data issues.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Fixing Data Types</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I51" s="3" t="inlineStr">
         <is>
-          <t>Detect columns with incorrect data types; Convert data types to enable proper analysis; Explain why correct data types are essential</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="52">
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>Review key concepts learned during the week and complete the weekly assessment.</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>Weekly Review</t>
+        </is>
+      </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
           <t>Lesson</t>
@@ -1708,43 +1768,66 @@
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Detecting and Understanding Outliers</t>
+          <t>Weekly Review Prep Session</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I52" s="3" t="inlineStr">
         <is>
-          <t>Identify outliers using simple numerical and visual methods; Distinguish between meaningful outliers and problematic outliers; Explain why outliers should be investigated, not automatically removed</t>
+          <t>We'll review key concepts and prepare for the assessment</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Filtering with Purpose</t>
+          <t>Weekly Review Assessment</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I53" s="3" t="inlineStr">
         <is>
-          <t>Apply filters based on meaningful conditions; Explain why specific filters are applied; Validate that filtering produced expected results</t>
+          <t>Our weekly assessment, where you will test your knowledge from the last week using practical questions and challenges</t>
         </is>
       </c>
     </row>
     <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Data Cleaning to EDA: In this unit, students will clean and type-correct real datasets, detect and interpret outliers, apply purposeful filtering and grouping, and carry out basic exploratory data analysis with appropriate plots and summaries to answer focused questions without over-interpreting results.</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>Learn to fix incorrect data types and investigate outliers so your datasets are accurate, analyzable, and trustworthy. Practice these skills on real cafe orders and movie ratings data, deciding which unusual values to keep, question, or correct.</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>Clean Data Types and Outliers</t>
+        </is>
+      </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
           <t>Group Class</t>
@@ -1752,7 +1835,7 @@
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Grouping for Insight</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -1762,19 +1845,19 @@
       </c>
       <c r="I54" s="3" t="inlineStr">
         <is>
-          <t>Use grouping to compare categories in data; Interpret aggregated values meaningfully; Identify patterns revealed through grouping</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cafe sales cleanup</t>
+          <t>Fixing Data Types</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -1784,19 +1867,19 @@
       </c>
       <c r="I55" s="3" t="inlineStr">
         <is>
-          <t>Detect and fix incorrect data types in a small cafe sales dataset, explaining why each conversion is needed. Output: A cleaned DataFrame where dates, prices, and quantities have correct types ready for analysis.</t>
+          <t>Detect columns with incorrect data types; Convert data types to enable proper analysis; Explain why correct data types are essential</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Movie ratings outliers</t>
+          <t>Detecting and Understanding Outliers</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -1806,7 +1889,7 @@
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t>Identify and visualize outliers in a movie ratings dataset and decide which are meaningful versus problematic. Output: A summary report (printed or markdown-style) highlighting detected outliers with plots and short justifications.</t>
+          <t>Identify outliers using simple numerical and visual methods; Distinguish between meaningful outliers and problematic outliers; Explain why outliers should be investigated, not automatically removed</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1901,7 @@
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Fitness tracker filters</t>
+          <t>Practice Lesson: Cafe orders data cleanup</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -1828,7 +1911,7 @@
       </c>
       <c r="I57" s="3" t="inlineStr">
         <is>
-          <t>Apply purposeful filters on a fitness tracker dataset to isolate meaningful subsets and verify the results. Output: Filtered DataFrames and printed checks that confirm the filters match the intended conditions (e.g., steps over a threshold, specific days).</t>
+          <t>Clean a messy cafe orders dataset by fixing incorrect data types and explaining why each correction matters for analysis. Output: A cleaned table of cafe orders where dates, prices, and quantities have correct data types and can be analyzed without errors.</t>
         </is>
       </c>
     </row>
@@ -1840,43 +1923,58 @@
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Online store grouping</t>
+          <t>Practice Lesson: Movie ratings outlier detective</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I58" s="3" t="inlineStr">
         <is>
-          <t>Use grouping and aggregation on an online store orders dataset to compare categories and interpret the patterns. Output: Grouped tables (e.g., revenue by category or weekday) and brief printed interpretations of key insights.</t>
+          <t>Analyze movie ratings and box office data to detect, visualize, and interpret outliers, deciding which are meaningful vs problematic. Output: A short report and plots highlighting outlier movies with explanations of why they stand out and how they should be treated in analysis.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Data cleaning mini pipeline</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I59" s="3" t="inlineStr">
         <is>
-          <t>Combine type fixing, outlier inspection, filtering, and grouping into a mini cleaning-and-insight pipeline on a mixed dataset. Output: A processed dataset plus a short printed summary of main findings after each step (types fixed, outliers flagged, filtered subset, grouped insights).</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="60">
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>Learn to filter datasets with clear intent, group data to compare categories, and interpret aggregates to answer practical questions. Practice these skills on fitness and online store data, validating that your filters and groupings produce accurate, meaningful results.</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Filtering and Grouping for Insight</t>
+        </is>
+      </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
           <t>Group Class</t>
@@ -1884,7 +1982,7 @@
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Closing session</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -1894,56 +1992,41 @@
       </c>
       <c r="I60" s="3" t="inlineStr">
         <is>
-          <t>Wrap up the day togeher with your peers and ask final questions</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>Learn how to explore raw data with the right plots, summaries, and questions so you can spot patterns, anomalies, and data types before modeling. Practice doing EDA end-to-end on realistic datasets while clearly separating exploration from final conclusions.</t>
-        </is>
-      </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>Exploratory Data Analysis in Action</t>
-        </is>
-      </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Opening session and Q&amp;A</t>
+          <t>Filtering with Purpose</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I61" s="3" t="inlineStr">
         <is>
-          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
+          <t>Apply filters based on meaningful conditions; Explain why specific filters are applied; Validate that filtering produced expected results</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>What EDA Really Means</t>
+          <t>Grouping for Insight</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -1953,19 +2036,19 @@
       </c>
       <c r="I62" s="3" t="inlineStr">
         <is>
-          <t>Define exploratory data analysis in clear, practical terms; Explain the goals of EDA before modeling or decisions; Distinguish EDA from final conclusions</t>
+          <t>Use grouping to compare categories in data; Interpret aggregated values meaningfully; Identify patterns revealed through grouping</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>First Plots for Insight</t>
+          <t>Practice Lesson: Fitness app user filtering</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -1975,63 +2058,78 @@
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t>Create basic plots using matplotlib; Choose plot types appropriate to specific questions; Interpret plots to describe trends and patterns</t>
+          <t>Use purposeful filtering on a fitness tracking dataset to answer targeted questions, justify filter choices, and verify filtered results. Output: A filtered dataset and summary answering questions like “who are active users?” with checks that confirm filters worked as intended.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Patterns and Anomalies</t>
+          <t>Practice Lesson: Online store sales grouping</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I64" s="3" t="inlineStr">
         <is>
-          <t>Identify patterns emerging from data exploration; Detect anomalies and unusual values; Explain findings clearly without over-interpreting</t>
+          <t>Group online store transactions by categories (e.g., product type, region) to compute aggregates, interpret them, and identify meaningful patterns. Output: Grouped summary tables and simple charts showing which categories drive sales and how they compare.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Data Types &amp; “What am I analyzing?”</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I65" s="3" t="inlineStr">
         <is>
-          <t>Distinguish numerical vs categorical variables; Identify whether a question is univariate or relationship-based; Understand that choosing appropriate summary statistics and visualizations is based on data type and know the main techniques according to data type</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="66">
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>Learn what exploratory data analysis (EDA) is, why it comes before modeling and conclusions, and how to use basic matplotlib plots to explore patterns in real datasets and clearly explain your findings.</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>Exploratory Data Analysis in Action</t>
+        </is>
+      </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: EDA concepts check</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2041,19 +2139,19 @@
       </c>
       <c r="I66" s="3" t="inlineStr">
         <is>
-          <t>Differentiate between EDA, modeling, and final conclusions through matching, short-answer, and scenario questions. Output: Written answers identifying which activities are EDA, which are conclusions, and explanations of EDA goals.</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Music app first plots</t>
+          <t>What EDA Really Means</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2063,19 +2161,19 @@
       </c>
       <c r="I67" s="3" t="inlineStr">
         <is>
-          <t>Create basic matplotlib plots (histogram, bar chart, line plot) on a music app listening dataset and explain which questions each plot answers. Output: A set of plots with short text descriptions interpreting key trends and patterns.</t>
+          <t>Define exploratory data analysis in clear, practical terms; Explain the goals of EDA before modeling or decisions; Distinguish EDA from final conclusions</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Patterns and anomalies in deliveries</t>
+          <t>First Plots for Insight</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2085,7 +2183,7 @@
       </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
-          <t>Explore a delivery times dataset to spot patterns and anomalies, documenting observations without over-claiming. Output: Simple visualizations and a concise narrative describing typical behavior and unusual cases.</t>
+          <t>Create basic plots using matplotlib; Choose plot types appropriate to specific questions; Interpret plots to describe trends and patterns</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2195,7 @@
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Data types and questions quiz</t>
+          <t>Theory Practice Lesson: EDA concepts check</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2107,7 +2205,7 @@
       </c>
       <c r="I69" s="3" t="inlineStr">
         <is>
-          <t>Classify variables as numerical or categorical and label questions as univariate or relationship-based, choosing appropriate summaries and plots. Output: A completed worksheet-style answer set mapping each question to variable types, summary statistics, and visualization choices.</t>
+          <t>Distinguish clearly between exploratory data analysis, modeling, and final conclusions through matching, scenario analysis, and reflection questions. Output: A completed written/quiz-style worksheet categorizing tasks as EDA or not and explaining EDA goals in your own words.</t>
         </is>
       </c>
     </row>
@@ -2119,17 +2217,17 @@
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Mini EDA on bookstore data</t>
+          <t>Practice Lesson: Music app listening patterns plots</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I70" s="3" t="inlineStr">
         <is>
-          <t>Perform a focused EDA on a small bookstore sales dataset, from first plots to pattern/anomaly notes, staying within the boundaries of exploration. Output: A short EDA notebook or script with plots and bullet-point observations that clearly separate description from conclusions.</t>
+          <t>Create and interpret basic matplotlib plots (e.g., histograms, bar charts, line plots) to explore listening behavior in a music app dataset. Output: A small set of plots with brief written interpretations describing trends and patterns in user listening habits.</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2244,7 @@
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I71" s="3" t="inlineStr">
@@ -2158,17 +2256,17 @@
     <row r="72">
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>Build an intuitive feel for how data is spread out by reading histograms, comparing mean and median, and understanding variability and standard deviation. Learn to spot when randomness and noise can create misleading patterns, and why looking beyond single-number summaries leads to better decisions.</t>
+          <t>Learn to recognize patterns and anomalies in real datasets, distinguish variable types and question types, and choose appropriate summary statistics and visualizations to answer clear, focused analysis questions.</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>Seeing Data Distributions Clearly</t>
+          <t>Making Sense of Your Data</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
@@ -2183,7 +2281,7 @@
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I72" s="3" t="inlineStr">
@@ -2200,7 +2298,7 @@
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>Distributions - Looking beyond single numbers</t>
+          <t>Patterns and Anomalies</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2210,7 +2308,7 @@
       </c>
       <c r="I73" s="3" t="inlineStr">
         <is>
-          <t>Explain what a distribution represents; Interpret basic distribution shape using a histogram or bar chart; Describe why summary statistics alone can be misleading without distribution context</t>
+          <t>Identify patterns emerging from data exploration; Detect anomalies and unusual values; Explain findings clearly without over-interpreting</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2320,7 @@
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Mean vs Median - Choosing the right “average”</t>
+          <t>Data Types &amp; “What am I analyzing?”</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2232,19 +2330,19 @@
       </c>
       <c r="I74" s="3" t="inlineStr">
         <is>
-          <t>Define mean and median with practical examples; Select mean vs median depending on skew and outliers; Explain how outliers can distort the mean and affect interpretation</t>
+          <t>Distinguish numerical vs categorical variables; Identify whether a question is univariate or relationship-based; Understand that choosing appropriate summary statistics and visualizations is based on data type and get an overview of main techniques according to data type</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Variability &amp; Standard Deviation (Intuition)</t>
+          <t>Practice Lesson: Ride-sharing patterns explorer</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2254,107 +2352,145 @@
       </c>
       <c r="I75" s="3" t="inlineStr">
         <is>
-          <t>Explain variability as how spread out values are; Interpret standard deviation at an intuitive level; Compare two datasets and infer which has more variability</t>
+          <t>Examine ride-sharing data to identify recurring patterns and anomalies, then describe findings clearly without overstating conclusions. Output: A concise analysis with tables/plots marking typical patterns (e.g., rush hours) and unusual values (e.g., extreme fares or durations) plus explanations.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Randomness, Noise &amp; Why patterns can be misleading</t>
+          <t>Theory Practice Lesson: Variable types and question matching</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I76" s="3" t="inlineStr">
         <is>
-          <t>Define randomness and noise in real datasets; Recognize when a pattern may be caused by noise rather than signal; Explain why repeated measurements or samples may lead to different results</t>
+          <t>Classify variables as numerical or categorical, match questions to univariate or relationship-based analysis, and choose suitable summaries/visuals by type. Output: A completed matching and reasoning exercise that maps each variable and question to appropriate summary statistics and visualization types.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Distributions intuition</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr">
         <is>
-          <t>Interpret histograms and bar charts of different datasets to describe distribution shape and why single-number summaries can mislead. Output: Written explanations comparing pairs of distributions and highlighting what the shape reveals beyond the mean.</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="78">
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>Review key concepts learned during the week and complete the weekly assessment.</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>Weekly Review</t>
+        </is>
+      </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G78" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Ride-sharing fares distribution</t>
+          <t>Weekly Review Prep Session</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I78" s="3" t="inlineStr">
         <is>
-          <t>Analyze the distribution of ride-sharing fares with histograms and describe skew, typical ranges, and potential issues with relying only on averages. Output: Plots plus a short textual summary explaining the fare distribution and implications for using the mean.</t>
+          <t>We'll review key concepts and prepare for the assessment</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Mean vs median in housing prices</t>
+          <t>Weekly Review Assessment</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr">
         <is>
-          <t>Compute and compare mean and median for simulated housing price data with and without extreme values, deciding which measure is more appropriate. Output: Printed statistics and a short interpretation showing how outliers change the mean and affect conclusions.</t>
+          <t>Our weekly assessment, where you will test your knowledge from the last week using practical questions and challenges</t>
         </is>
       </c>
     </row>
     <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>Variability, Relationships, and Uncertainty: In this unit, students build intuitive statistical thinking by comparing variability and noise, exploring relationships between two or more variables (including correlation vs causation), and using probability and sampling ideas to judge how much to trust patterns in real-world data.</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>Build an intuitive feel for how and why real-world data varies, what standard deviation tells you about that spread, and how randomness and noise can create misleading patterns—so you can better judge which patterns to trust.</t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="inlineStr">
+        <is>
+          <t>Variability, Noise, and Real-World Data</t>
+        </is>
+      </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G80" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Variability in game scores</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -2364,19 +2500,19 @@
       </c>
       <c r="I80" s="3" t="inlineStr">
         <is>
-          <t>Compare variability and intuitive standard deviation in score distributions for two mobile games, identifying which is more consistent. Output: Side-by-side plots and a brief explanation of which game has more spread and what that means for players.</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G81" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Randomness and noisy patterns</t>
+          <t>Variability &amp; Standard Deviation (Intuition)</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -2386,19 +2522,19 @@
       </c>
       <c r="I81" s="3" t="inlineStr">
         <is>
-          <t>Simulate random data with noise, visualize apparent patterns, and explain which patterns are likely due to chance. Output: Plots of noisy data and a short commentary distinguishing real structure from randomness and why repeated samples differ.</t>
+          <t>Explain variability as how spread out values are; Interpret standard deviation at an intuitive level; Compare two datasets and infer which has more variability</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G82" s="4" t="inlineStr">
         <is>
-          <t>Closing session</t>
+          <t>Randomness, Noise &amp; Why patterns can be misleading</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -2408,100 +2544,100 @@
       </c>
       <c r="I82" s="3" t="inlineStr">
         <is>
-          <t>Wrap up the day togeher with your peers and ask final questions</t>
+          <t>Define randomness and noise in real datasets; Recognize when a pattern may be caused by noise rather than signal; Explain why repeated measurements or samples may lead to different results</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>Learn to reason about how two or more variables move together, choose appropriate visualizations, and interpret correlation (Pearson vs Spearman) without confusing it with causation. Build intuition for how adding variables can change relationships and inform better analysis and modeling decisions.</t>
-        </is>
-      </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>Thinking in Relationships</t>
-        </is>
-      </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G83" s="4" t="inlineStr">
         <is>
-          <t>Opening session and Q&amp;A</t>
+          <t>Practice Lesson: Cafe order variability</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I83" s="3" t="inlineStr">
         <is>
-          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
+          <t>Practice intuitively comparing variability and standard deviation by analyzing how spread out daily cafe orders are across different weeks. Output: A short written comparison or simple script that labels which week has higher variability and explains why in plain language.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G84" s="4" t="inlineStr">
         <is>
-          <t>Bivariate Thinking - Relationships between two variables</t>
+          <t>Practice Lesson: Fitness tracker noise detector</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I84" s="3" t="inlineStr">
         <is>
-          <t>Identify when a question requires bivariate analysis; Choose an appropriate visualization for different variable type combinations; Describe what it means for two variables to move together at an intuitive level</t>
+          <t>Strengthen intuition about randomness and noise by examining day-to-day step counts to decide which apparent patterns are likely just random fluctuation. Output: A short written analysis or simple script that flags “suspicious patterns” that may be noise and explains your reasoning.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G85" s="4" t="inlineStr">
         <is>
-          <t>Correlation - Pearson vs Spearman (High level)</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I85" s="3" t="inlineStr">
         <is>
-          <t>Define correlation and interpret positive vs negative correlation; Differentiate Pearson (linear) vs Spearman (rank or monotonic) at a high level; Explain when Spearman may be more appropriate than Pearson</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="86">
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>Learn to recognize when questions call for bivariate analysis, pick suitable visualizations for different pairs of variables, and build intuition for how variables move together—including interpreting Pearson vs Spearman correlation and choosing between them in practical scenarios.</t>
+        </is>
+      </c>
+      <c r="E86" s="4" t="inlineStr">
+        <is>
+          <t>Seeing Relationships Between Variables</t>
+        </is>
+      </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G86" s="4" t="inlineStr">
         <is>
-          <t>Correlation ≠ Causation</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -2511,7 +2647,7 @@
       </c>
       <c r="I86" s="3" t="inlineStr">
         <is>
-          <t>Explain why correlation does not imply causation; Identify common pitfalls such as confounders and reverse causality; Propose ways to reduce wrong conclusions using additional variables or domain reasoning</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2659,7 @@
       </c>
       <c r="G87" s="4" t="inlineStr">
         <is>
-          <t>Multivariate Intuition - When relationships change</t>
+          <t>Bivariate Thinking - Relationships between two variables</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -2533,19 +2669,19 @@
       </c>
       <c r="I87" s="3" t="inlineStr">
         <is>
-          <t>Explain why adding a third variable can change an observed relationship; Describe controlling for another variable conceptually; Understand how multivariate thinking connects to feature selection and ML modeling decisions at a high level</t>
+          <t>Identify when a question requires bivariate analysis; Choose an appropriate visualization for different variable type combinations; Describe what it means for two variables to move together at an intuitive level</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G88" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Bivariate thinking scenarios</t>
+          <t>Correlation - Pearson vs Spearman (High level)</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -2555,7 +2691,7 @@
       </c>
       <c r="I88" s="3" t="inlineStr">
         <is>
-          <t>Decide which questions require bivariate analysis and select appropriate visualization types for different variable combinations. Output: A written set of answers matching each scenario to “univariate vs bivariate” and a recommended plot type.</t>
+          <t>Define correlation and interpret positive vs negative correlation; Differentiate Pearson (linear) vs Spearman (rank or monotonic) at a high level; Explain when Spearman may be more appropriate than Pearson</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2703,7 @@
       </c>
       <c r="G89" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Study hours and exam scores</t>
+          <t>Practice Lesson: Music app bivariate explorer</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -2577,7 +2713,7 @@
       </c>
       <c r="I89" s="3" t="inlineStr">
         <is>
-          <t>Explore the relationship between study hours and exam scores using scatter plots and describe how the two variables move together. Output: A scatter plot with a brief interpretation of the apparent relationship and its strength/direction.</t>
+          <t>Apply bivariate thinking by choosing appropriate visualizations to explore relationships (e.g., song length vs. number of plays, genre vs. likes) in a fictional music app dataset. Output: A set of sketched or coded plots (or descriptions of them) with brief notes on what each suggests about the relationship.</t>
         </is>
       </c>
     </row>
@@ -2589,51 +2725,66 @@
       </c>
       <c r="G90" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Correlation types quiz</t>
+          <t>Practice Lesson: Study hours and grades correlation</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr">
         <is>
-          <t>Interpret correlation examples and distinguish when Pearson vs Spearman correlation is more appropriate at a high level. Output: Answered questions that label each scenario with correlation direction/strength and the preferred correlation type with justification.</t>
+          <t>Build intuition for Pearson vs Spearman correlation by comparing linear vs rank-based relationships between study hours and test scores, including cases with outliers and non-linear patterns. Output: A short report or script that computes/compares Pearson and Spearman values and states which is more appropriate in each scenario.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G91" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Correlation not causation stories</t>
+          <t>Closing session</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I91" s="3" t="inlineStr">
         <is>
-          <t>Analyze short story-based examples of correlated variables to identify possible confounders, reverse causality, and safer interpretations. Output: Written explanations for each story that separate correlation from causation and propose better reasoning or additional data needed.</t>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
         </is>
       </c>
     </row>
     <row r="92">
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>Learn why correlation does not imply causation, how confounders and reverse causality mislead us, and how adding extra variables can flip relationships. Practice multivariate thinking through scenarios and story puzzles so you can reason about features and relationships more like an ML practitioner.</t>
+        </is>
+      </c>
+      <c r="E92" s="4" t="inlineStr">
+        <is>
+          <t>Thinking Beyond Correlation</t>
+        </is>
+      </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>Exercise</t>
+          <t>Group Class</t>
         </is>
       </c>
       <c r="G92" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Multivariate restaurant ratings</t>
+          <t>Opening session and Q&amp;A</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -2643,19 +2794,19 @@
       </c>
       <c r="I92" s="3" t="inlineStr">
         <is>
-          <t>Examine how adding a third variable (e.g., price range) changes the observed relationship between restaurant rating and delivery time, building multivariate intuition. Output: Plots or grouped summaries by the third variable and a concise explanation of how the relationship shifts when controlling for it.</t>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>Group Class</t>
+          <t>Lesson</t>
         </is>
       </c>
       <c r="G93" s="4" t="inlineStr">
         <is>
-          <t>Closing session</t>
+          <t>Correlation ≠ Causation</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -2665,26 +2816,11 @@
       </c>
       <c r="I93" s="3" t="inlineStr">
         <is>
-          <t>Wrap up the day togeher with your peers and ask final questions</t>
+          <t>Explain why correlation does not imply causation; Identify common pitfalls such as confounders and reverse causality; Propose ways to reduce wrong conclusions, such as checking other variables and using domain reasoning</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>Review key concepts learned during the week and complete the weekly assessment.</t>
-        </is>
-      </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>Weekly Review</t>
-        </is>
-      </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
           <t>Lesson</t>
@@ -2692,29 +2828,29 @@
       </c>
       <c r="G94" s="4" t="inlineStr">
         <is>
-          <t>Weekly Review Prep Session</t>
+          <t>Multivariate Intuition - When relationships change</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I94" s="3" t="inlineStr">
         <is>
-          <t>We'll review key concepts and prepare for the assessment</t>
+          <t>Explain why adding a third variable can change an observed relationship; Describe controlling for another variable conceptually; Understand how multivariate thinking connects to feature selection and ML modeling decisions at a high level</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>Lesson</t>
+          <t>Exercise</t>
         </is>
       </c>
       <c r="G95" s="4" t="inlineStr">
         <is>
-          <t>Prep Lesson</t>
+          <t>Theory Practice Lesson: Correlation trap quiz</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -2724,68 +2860,330 @@
       </c>
       <c r="I95" s="3" t="inlineStr">
         <is>
-          <t>Prep lesson for the weekly review</t>
+          <t>Deepen understanding of why correlation ≠ causation by working through scenarios that involve confounders, reverse causality, and misleading headlines. Output: A completed quiz or answer sheet where each scenario is labeled with the specific pitfall and a brief explanation.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="F96" s="2" t="inlineStr">
         <is>
+          <t>Exercise</t>
+        </is>
+      </c>
+      <c r="G96" s="4" t="inlineStr">
+        <is>
+          <t>Theory Practice Lesson: Multivariate story puzzles</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I96" s="3" t="inlineStr">
+        <is>
+          <t>Practice multivariate intuition by analyzing short story-based puzzles where adding a third variable changes the interpretation of an observed relationship. Output: A written set of answers identifying the third variable, explaining how it changes the relationship, and linking it to how you’d think about features in an ML model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>Group Class</t>
+        </is>
+      </c>
+      <c r="G97" s="4" t="inlineStr">
+        <is>
+          <t>Closing session</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I97" s="3" t="inlineStr">
+        <is>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>Build an intuitive feel for probability as a way to describe uncertainty and variability, and for how samples relate to populations. Learn to interpret everyday probability statements, recognize why different samples give different results, and be cautious about conclusions from small or biased samples.</t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="inlineStr">
+        <is>
+          <t>Probability, Uncertainty, and Samples</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>Group Class</t>
+        </is>
+      </c>
+      <c r="G98" s="4" t="inlineStr">
+        <is>
+          <t>Opening session and Q&amp;A</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I98" s="3" t="inlineStr">
+        <is>
+          <t>Ask questions, clarify concepts, and engage with instructors and peers in real-time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>Lesson</t>
+        </is>
+      </c>
+      <c r="G99" s="4" t="inlineStr">
+        <is>
+          <t>Probability as Uncertainty (High level)</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I99" s="3" t="inlineStr">
+        <is>
+          <t>Explain probability as a way to describe uncertainty; Interpret probability statements in everyday terms; Connect probability to variability and why results are not exact</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>Lesson</t>
+        </is>
+      </c>
+      <c r="G100" s="4" t="inlineStr">
+        <is>
+          <t>Samples vs Population - Why results vary</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I100" s="3" t="inlineStr">
+        <is>
+          <t>Distinguish population vs sample intuitively; Explain why different samples give different results; Describe why we should be cautious about trusting patterns from small samples</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>Exercise</t>
+        </is>
+      </c>
+      <c r="G101" s="4" t="inlineStr">
+        <is>
+          <t>Theory Practice Lesson: Everyday probability scenarios</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I101" s="3" t="inlineStr">
+        <is>
+          <t>Reinforce the idea of probability as uncertainty by interpreting probability statements in everyday contexts (weather, games, medical tests) and connecting them to variability. Output: A worksheet-style set of answers translating numeric probabilities into everyday language and noting what kind of variability you’d expect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>Exercise</t>
+        </is>
+      </c>
+      <c r="G102" s="4" t="inlineStr">
+        <is>
+          <t>Theory Practice Lesson: Sampling stories</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I102" s="3" t="inlineStr">
+        <is>
+          <t>Strengthen intuition about samples vs populations by judging fictional survey setups, explaining why different samples can give different results, and critiquing small-sample claims. Output: A written critique for each scenario that identifies the population, describes the sample, and explains how sampling could distort the observed pattern.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>Group Class</t>
+        </is>
+      </c>
+      <c r="G103" s="4" t="inlineStr">
+        <is>
+          <t>Closing session</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I103" s="3" t="inlineStr">
+        <is>
+          <t>Wrap up the day togeher with your peers and ask final questions</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>Review key concepts learned during the week and complete the weekly assessment.</t>
+        </is>
+      </c>
+      <c r="E104" s="4" t="inlineStr">
+        <is>
+          <t>Weekly Review</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>Lesson</t>
+        </is>
+      </c>
+      <c r="G104" s="4" t="inlineStr">
+        <is>
+          <t>Weekly Review Prep Session</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I104" s="3" t="inlineStr">
+        <is>
+          <t>We'll review key concepts and prepare for the assessment</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="F105" s="2" t="inlineStr">
+        <is>
           <t>Assessment</t>
         </is>
       </c>
-      <c r="G96" s="4" t="inlineStr">
+      <c r="G105" s="4" t="inlineStr">
         <is>
           <t>Weekly Review Assessment</t>
         </is>
       </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I96" s="3" t="inlineStr">
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I105" s="3" t="inlineStr">
         <is>
           <t>Our weekly assessment, where you will test your knowledge from the last week using practical questions and challenges</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="E13:E23"/>
-    <mergeCell ref="D61:D71"/>
-    <mergeCell ref="D2:D12"/>
-    <mergeCell ref="C50:C60"/>
-    <mergeCell ref="D35:D46"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="D72:D82"/>
-    <mergeCell ref="B2:B49"/>
-    <mergeCell ref="C61:C71"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="B50:B96"/>
-    <mergeCell ref="D24:D34"/>
-    <mergeCell ref="E61:E71"/>
-    <mergeCell ref="C35:C46"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="D83:D93"/>
-    <mergeCell ref="A2:A49"/>
-    <mergeCell ref="E72:E82"/>
-    <mergeCell ref="E50:E60"/>
-    <mergeCell ref="C72:C82"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="E35:E46"/>
-    <mergeCell ref="D50:D60"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C83:C93"/>
-    <mergeCell ref="A50:A96"/>
-    <mergeCell ref="E83:E93"/>
-    <mergeCell ref="C24:C34"/>
-    <mergeCell ref="E24:E34"/>
-    <mergeCell ref="D47:D49"/>
+  <mergeCells count="68">
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="E92:E97"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A54:A79"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="C98:C103"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="E98:E103"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E60:E65"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="A80:A105"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="B28:B53"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E80:E85"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D92:D97"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D98:D103"/>
+    <mergeCell ref="A28:A53"/>
+    <mergeCell ref="E72:E77"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="B54:B79"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="B80:B105"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="E52:E53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
